--- a/good_results/fixed_memory_table.xlsx
+++ b/good_results/fixed_memory_table.xlsx
@@ -108,8 +108,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="105">
+  <cellStyleXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -219,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="105">
+  <cellStyles count="135">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -272,6 +302,21 @@
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -324,6 +369,21 @@
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1128,11 +1188,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2140834744"/>
-        <c:axId val="-2140837608"/>
+        <c:axId val="-2142408264"/>
+        <c:axId val="-2142411496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2140834744"/>
+        <c:axId val="-2142408264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1142,12 +1202,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140837608"/>
+        <c:crossAx val="-2142411496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2140837608"/>
+        <c:axId val="-2142411496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3000.0"/>
@@ -1159,7 +1219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140834744"/>
+        <c:crossAx val="-2142408264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1976,11 +2036,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2141558312"/>
-        <c:axId val="-2141555048"/>
+        <c:axId val="-2143083112"/>
+        <c:axId val="-2143079848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2141558312"/>
+        <c:axId val="-2143083112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1990,12 +2050,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141555048"/>
+        <c:crossAx val="-2143079848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2141555048"/>
+        <c:axId val="-2143079848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -2007,7 +2067,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141558312"/>
+        <c:crossAx val="-2143083112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2829,11 +2889,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2141946056"/>
-        <c:axId val="-2141949320"/>
+        <c:axId val="2056161128"/>
+        <c:axId val="2056175160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2141946056"/>
+        <c:axId val="2056161128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2843,12 +2903,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141949320"/>
+        <c:crossAx val="2056175160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2141949320"/>
+        <c:axId val="2056175160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2859,7 +2919,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141946056"/>
+        <c:crossAx val="2056161128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3685,11 +3745,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2141990696"/>
-        <c:axId val="-2141993960"/>
+        <c:axId val="-2133353080"/>
+        <c:axId val="-2133349816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2141990696"/>
+        <c:axId val="-2133353080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3699,12 +3759,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141993960"/>
+        <c:crossAx val="-2133349816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2141993960"/>
+        <c:axId val="-2133349816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="700.0"/>
@@ -3716,7 +3776,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141990696"/>
+        <c:crossAx val="-2133353080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3813,19 +3873,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>5.59101666067988</c:v>
+                    <c:v>0.0924429553833064</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>11.2498049267037</c:v>
+                    <c:v>0.11957443056291</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>33.0293582029684</c:v>
+                    <c:v>0.166458102836719</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>60.7533182328339</c:v>
+                    <c:v>0.140892867101212</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>89.3506244141584</c:v>
+                    <c:v>0.265101301392504</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3837,19 +3897,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>5.59101666067988</c:v>
+                    <c:v>0.0924429553833064</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>11.2498049267037</c:v>
+                    <c:v>0.11957443056291</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>33.0293582029684</c:v>
+                    <c:v>0.166458102836719</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>60.7533182328339</c:v>
+                    <c:v>0.140892867101212</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>89.3506244141584</c:v>
+                    <c:v>0.265101301392504</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3893,19 +3953,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>80.2454</c:v>
+                  <c:v>13.2801999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>142.930999999999</c:v>
+                  <c:v>14.9446</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>330.7754</c:v>
+                  <c:v>17.2864</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>640.0916</c:v>
+                  <c:v>19.1166</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1235.8498</c:v>
+                  <c:v>21.1897999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4063,7 +4123,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>39.4322176753983</c:v>
+                    <c:v>0.467390307986806</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4075,19 +4135,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>3.04474580219761</c:v>
+                    <c:v>0.104638902899447</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.97083980832212</c:v>
+                    <c:v>0.179181503261668</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>14.5001173374562</c:v>
+                    <c:v>0.26589979315524</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>28.1651999140783</c:v>
+                    <c:v>0.346472654043576</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>39.4322176753983</c:v>
+                    <c:v>0.467390307986806</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4131,19 +4191,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>83.1169999999999</c:v>
+                  <c:v>25.1866</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>125.407199999999</c:v>
+                  <c:v>28.8487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>241.9394</c:v>
+                  <c:v>34.6432</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>424.9992</c:v>
+                  <c:v>39.4573999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>777.7726</c:v>
+                  <c:v>45.3307999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4176,19 +4236,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>3.04474580219761</c:v>
+                    <c:v>0.104638902899447</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.97083980832212</c:v>
+                    <c:v>0.179181503261668</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>14.5001173374562</c:v>
+                    <c:v>0.26589979315524</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>28.1651999140783</c:v>
+                    <c:v>0.346472654043576</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>39.4322176753983</c:v>
+                    <c:v>0.467390307986806</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4200,19 +4260,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>3.04474580219761</c:v>
+                    <c:v>0.104638902899447</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.97083980832212</c:v>
+                    <c:v>0.179181503261668</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>14.5001173374562</c:v>
+                    <c:v>0.26589979315524</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>28.1651999140783</c:v>
+                    <c:v>0.346472654043576</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>39.4322176753983</c:v>
+                    <c:v>0.467390307986806</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4256,19 +4316,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>83.1169999999999</c:v>
+                  <c:v>25.1866</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>125.407199999999</c:v>
+                  <c:v>28.8487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>241.9394</c:v>
+                  <c:v>34.6432</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>424.9992</c:v>
+                  <c:v>39.4573999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>777.7726</c:v>
+                  <c:v>45.3307999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4301,19 +4361,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>7.26715385828591</c:v>
+                    <c:v>0.0558748601787955</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>10.2619744060834</c:v>
+                    <c:v>0.131343527523141</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>28.3141753332142</c:v>
+                    <c:v>0.215626528980086</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>57.3823805841131</c:v>
+                    <c:v>0.437664483365967</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>89.1501990379158</c:v>
+                    <c:v>1.28462667728799</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4325,19 +4385,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>7.26715385828591</c:v>
+                    <c:v>0.0558748601787955</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>10.2619744060834</c:v>
+                    <c:v>0.131343527523141</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>28.3141753332142</c:v>
+                    <c:v>0.215626528980086</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>57.3823805841131</c:v>
+                    <c:v>0.437664483365967</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>89.1501990379158</c:v>
+                    <c:v>1.28462667728799</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4381,19 +4441,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>198.312799999999</c:v>
+                  <c:v>11.6699999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>387.6276</c:v>
+                  <c:v>14.3376999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>956.267599999999</c:v>
+                  <c:v>20.7696</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1898.14499999999</c:v>
+                  <c:v>30.1632</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3891.225</c:v>
+                  <c:v>47.4958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4426,19 +4486,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>7.26715385828591</c:v>
+                    <c:v>0.0558748601787955</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>10.2619744060834</c:v>
+                    <c:v>0.131343527523141</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>28.3141753332142</c:v>
+                    <c:v>0.215626528980086</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>57.3823805841131</c:v>
+                    <c:v>0.437664483365967</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>89.1501990379158</c:v>
+                    <c:v>1.28462667728799</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4450,19 +4510,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>7.26715385828591</c:v>
+                    <c:v>0.0558748601787955</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>10.2619744060834</c:v>
+                    <c:v>0.131343527523141</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>28.3141753332142</c:v>
+                    <c:v>0.215626528980086</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>57.3823805841131</c:v>
+                    <c:v>0.437664483365967</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>89.1501990379158</c:v>
+                    <c:v>1.28462667728799</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4506,19 +4566,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>198.312799999999</c:v>
+                  <c:v>11.6699999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>387.6276</c:v>
+                  <c:v>14.3376999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>956.267599999999</c:v>
+                  <c:v>20.7696</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1898.14499999999</c:v>
+                  <c:v>30.1632</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3891.225</c:v>
+                  <c:v>47.4958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4533,11 +4593,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142038424"/>
-        <c:axId val="-2142041688"/>
+        <c:axId val="-2131491144"/>
+        <c:axId val="-2131428184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142038424"/>
+        <c:axId val="-2131491144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4547,15 +4607,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142041688"/>
+        <c:crossAx val="-2131428184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142041688"/>
+        <c:axId val="-2131428184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3000.0"/>
+          <c:max val="55.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4564,7 +4625,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142038424"/>
+        <c:crossAx val="-2131491144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5085,8 +5146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6019,8 +6080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F14" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="AC33" sqref="AC33"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7136,22 +7197,22 @@
         <v>1000</v>
       </c>
       <c r="E29">
-        <v>80.245400000000004</v>
+        <v>13.280199999999899</v>
       </c>
       <c r="F29">
         <v>1000</v>
       </c>
       <c r="G29">
-        <v>83.116999999999905</v>
+        <v>25.186599999999999</v>
       </c>
       <c r="H29">
-        <v>83.116999999999905</v>
+        <v>25.186599999999999</v>
       </c>
       <c r="I29">
-        <v>198.31279999999899</v>
+        <v>11.6699999999999</v>
       </c>
       <c r="J29">
-        <v>198.31279999999899</v>
+        <v>11.6699999999999</v>
       </c>
     </row>
     <row r="30" spans="2:10">
@@ -7159,22 +7220,22 @@
         <v>2000</v>
       </c>
       <c r="E30">
-        <v>142.93099999999899</v>
+        <v>14.944599999999999</v>
       </c>
       <c r="F30">
         <v>2000</v>
       </c>
       <c r="G30">
-        <v>125.40719999999899</v>
+        <v>28.848700000000001</v>
       </c>
       <c r="H30">
-        <v>125.40719999999899</v>
+        <v>28.848700000000001</v>
       </c>
       <c r="I30">
-        <v>387.62759999999997</v>
+        <v>14.3376999999999</v>
       </c>
       <c r="J30">
-        <v>387.62759999999997</v>
+        <v>14.3376999999999</v>
       </c>
     </row>
     <row r="31" spans="2:10">
@@ -7182,22 +7243,22 @@
         <v>5000</v>
       </c>
       <c r="E31">
-        <v>330.77539999999999</v>
+        <v>17.2864</v>
       </c>
       <c r="F31">
         <v>5000</v>
       </c>
       <c r="G31">
-        <v>241.93940000000001</v>
+        <v>34.6432</v>
       </c>
       <c r="H31">
-        <v>241.93940000000001</v>
+        <v>34.6432</v>
       </c>
       <c r="I31">
-        <v>956.26759999999899</v>
+        <v>20.769600000000001</v>
       </c>
       <c r="J31">
-        <v>956.26759999999899</v>
+        <v>20.769600000000001</v>
       </c>
     </row>
     <row r="32" spans="2:10">
@@ -7205,22 +7266,22 @@
         <v>10000</v>
       </c>
       <c r="E32">
-        <v>640.09159999999997</v>
+        <v>19.116599999999998</v>
       </c>
       <c r="F32">
         <v>10000</v>
       </c>
       <c r="G32">
-        <v>424.99919999999997</v>
+        <v>39.4573999999999</v>
       </c>
       <c r="H32">
-        <v>424.99919999999997</v>
+        <v>39.4573999999999</v>
       </c>
       <c r="I32">
-        <v>1898.14499999999</v>
+        <v>30.1632</v>
       </c>
       <c r="J32">
-        <v>1898.14499999999</v>
+        <v>30.1632</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -7228,22 +7289,22 @@
         <v>20000</v>
       </c>
       <c r="E33">
-        <v>1235.8498</v>
+        <v>21.189799999999899</v>
       </c>
       <c r="F33">
         <v>20000</v>
       </c>
       <c r="G33">
-        <v>777.77260000000001</v>
+        <v>45.330799999999897</v>
       </c>
       <c r="H33">
-        <v>777.77260000000001</v>
+        <v>45.330799999999897</v>
       </c>
       <c r="I33">
-        <v>3891.2249999999999</v>
+        <v>47.495800000000003</v>
       </c>
       <c r="J33">
-        <v>3891.2249999999999</v>
+        <v>47.495800000000003</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -7251,102 +7312,102 @@
         <v>9</v>
       </c>
       <c r="E34">
-        <v>5.5910166606798803</v>
+        <v>9.2442955383306394E-2</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>3.0447458021976099</v>
+        <v>0.10463890289944699</v>
       </c>
       <c r="H34">
-        <v>3.0447458021976099</v>
+        <v>0.10463890289944699</v>
       </c>
       <c r="I34">
-        <v>7.2671538582859103</v>
+        <v>5.5874860178795498E-2</v>
       </c>
       <c r="J34">
-        <v>7.2671538582859103</v>
+        <v>5.5874860178795498E-2</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="E35">
-        <v>11.2498049267037</v>
+        <v>0.11957443056291001</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>4.9708398083221201</v>
+        <v>0.17918150326166801</v>
       </c>
       <c r="H35">
-        <v>4.9708398083221201</v>
+        <v>0.17918150326166801</v>
       </c>
       <c r="I35">
-        <v>10.2619744060834</v>
+        <v>0.13134352752314099</v>
       </c>
       <c r="J35">
-        <v>10.2619744060834</v>
+        <v>0.13134352752314099</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="E36">
-        <v>33.029358202968403</v>
+        <v>0.166458102836719</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>14.500117337456199</v>
+        <v>0.26589979315523998</v>
       </c>
       <c r="H36">
-        <v>14.500117337456199</v>
+        <v>0.26589979315523998</v>
       </c>
       <c r="I36">
-        <v>28.314175333214202</v>
+        <v>0.215626528980086</v>
       </c>
       <c r="J36">
-        <v>28.314175333214202</v>
+        <v>0.215626528980086</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="E37">
-        <v>60.753318232833898</v>
+        <v>0.14089286710121199</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>28.1651999140783</v>
+        <v>0.34647265404357602</v>
       </c>
       <c r="H37">
-        <v>28.1651999140783</v>
+        <v>0.34647265404357602</v>
       </c>
       <c r="I37">
-        <v>57.3823805841131</v>
+        <v>0.43766448336596703</v>
       </c>
       <c r="J37">
-        <v>57.3823805841131</v>
+        <v>0.43766448336596703</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="E38">
-        <v>89.350624414158403</v>
+        <v>0.26510130139250399</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>39.432217675398299</v>
+        <v>0.46739030798680598</v>
       </c>
       <c r="H38">
-        <v>39.432217675398299</v>
+        <v>0.46739030798680598</v>
       </c>
       <c r="I38">
-        <v>89.150199037915797</v>
+        <v>1.28462667728799</v>
       </c>
       <c r="J38">
-        <v>89.150199037915797</v>
+        <v>1.28462667728799</v>
       </c>
     </row>
     <row r="40" spans="1:10">
